--- a/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
+++ b/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-next\sample_apps\lab_app_ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB9C0FD-C457-4F85-BAF7-8C46F8FA996E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970E1DAC-DD4A-48A9-84DB-2FF56B775E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="85">
   <si>
     <t>system utterance</t>
     <phoneticPr fontId="1"/>
@@ -106,16 +106,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>豚骨ラーメンとか塩ラーメンなどいろんな種類のラーメンがありますが、どんなラーメンが好きですか？</t>
-    <rPh sb="19" eb="21">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>あまり食べないです。</t>
     <rPh sb="3" eb="4">
       <t>タ</t>
@@ -380,10 +370,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$skip</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>好きじゃないのに何で食べるのですか？</t>
     <rPh sb="0" eb="1">
       <t>ス</t>
@@ -484,18 +470,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#NE_Person!=""</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>confirmation_request="すみません。ラーメンってよく食べますか？"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#好きなラーメン=="豚骨ラーメン"</t>
-    <rPh sb="11" eb="13">
-      <t>トンコツ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -506,46 +481,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>confirmed=="yes"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirmed=="no"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_set(&amp;topic_ramen, #好きなラーメン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{topic_ramen}ですね。{location}にはよく行きますか？</t>
+  </si>
+  <si>
+    <t>{greeting}。私は{get_system_name()}です。よろしければお名前を教えて頂けますか？</t>
+  </si>
+  <si>
+    <t>ありがとうございます。{#NE_Person}さん、今日はラーメンについて教えて下さい。ラーメンはよく食べますか？</t>
+  </si>
+  <si>
+    <t>confirmation_request="すみません。ラーメンってよく食べますか？"</t>
+  </si>
+  <si>
+    <t>#NE_Person!=""</t>
+  </si>
+  <si>
+    <t>#好きなラーメン=="豚骨ラーメン"</t>
+  </si>
+  <si>
     <t>_reaction="そうなんですね。"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>confirmed=="yes"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>confirmed=="no"</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豚骨ラーメンとか塩ラーメンなどいろんな種類のラーメンがありますが、どんなラーメンが好きですか？</t>
   </si>
   <si>
     <t>わかりました。{$"それまでの会話につづけて、対話を終わらせる発話を50文字以内で生成してください。"}今日はお時間ありがとうございました。</t>
-    <rPh sb="23" eb="25">
-      <t>タイワ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>イナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>$"ユーザが理由を言ったかどうか判断してください。"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_set(&amp;topic_ramen, #好きなラーメン)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{topic_ramen}ですね。{location}にはよく行きますか？</t>
-  </si>
-  <si>
-    <t>{greeting}。私は{get_system_name()}です。よろしければお名前を教えて頂けますか？</t>
-  </si>
-  <si>
-    <t>ありがとうございます。{#NE_Person}さん、今日はラーメンについて教えて下さい。ラーメンはよく食べますか？</t>
+  </si>
+  <si>
+    <t>$skip</t>
   </si>
 </sst>
 </file>
@@ -1016,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D1DC6-E066-4D71-9ECD-01107058A46B}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -1038,7 +1016,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1053,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -1061,66 +1039,66 @@
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" ht="60">
       <c r="A3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1">
       <c r="A4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" ht="75">
       <c r="A5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D5" s="14"/>
       <c r="F5" s="14"/>
@@ -1128,14 +1106,14 @@
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1" ht="30">
       <c r="A6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>3</v>
@@ -1148,17 +1126,17 @@
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1">
       <c r="A7" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1168,30 +1146,30 @@
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1" ht="30">
       <c r="A8" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="15" customFormat="1" ht="75">
       <c r="A9" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>9</v>
@@ -1207,14 +1185,14 @@
     </row>
     <row r="10" spans="1:8" s="15" customFormat="1" ht="30">
       <c r="A10" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>3</v>
@@ -1227,17 +1205,17 @@
     </row>
     <row r="11" spans="1:8" s="15" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -1247,34 +1225,34 @@
     </row>
     <row r="12" spans="1:8" s="15" customFormat="1" ht="30">
       <c r="A12" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
@@ -1283,15 +1261,15 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
@@ -1300,7 +1278,7 @@
     </row>
     <row r="15" spans="1:8" s="7" customFormat="1" ht="30">
       <c r="A15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>2</v>
@@ -1312,327 +1290,324 @@
         <v>11</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="7" customFormat="1">
       <c r="A16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="7" customFormat="1">
       <c r="A17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="7" customFormat="1" ht="30">
       <c r="A18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="7" customFormat="1">
       <c r="A19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" ht="45">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" ht="60">
       <c r="A21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" ht="45">
       <c r="A22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" ht="30">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="5" customFormat="1" ht="45">
-      <c r="A24" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="B24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="5" customFormat="1" ht="30">
       <c r="A25" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" ht="30">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="7" customFormat="1" ht="45">
       <c r="A31" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D31" s="8"/>
       <c r="F31" s="8"/>
@@ -1640,13 +1615,13 @@
     </row>
     <row r="32" spans="1:8" s="3" customFormat="1" ht="45">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D32" s="4"/>
       <c r="F32" s="4"/>
@@ -1654,13 +1629,13 @@
     </row>
     <row r="33" spans="1:8" s="5" customFormat="1" ht="90">
       <c r="A33" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D33" s="6"/>
       <c r="F33" s="6"/>
@@ -1668,13 +1643,13 @@
     </row>
     <row r="34" spans="1:8" s="5" customFormat="1" ht="75">
       <c r="A34" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" s="6"/>
       <c r="F34" s="6"/>
@@ -1682,13 +1657,13 @@
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" ht="60">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D35" s="2"/>
       <c r="F35" s="2"/>
@@ -1696,13 +1671,13 @@
     </row>
     <row r="36" spans="1:8" s="5" customFormat="1" ht="60">
       <c r="A36" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D36" s="6"/>
       <c r="F36" s="6"/>
@@ -1710,41 +1685,41 @@
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1">
       <c r="A37" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
+++ b/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-next\sample_apps\lab_app_ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970E1DAC-DD4A-48A9-84DB-2FF56B775E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45FF27C-373B-43A9-AF03-824CCE1CEE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="86">
   <si>
     <t>system utterance</t>
     <phoneticPr fontId="1"/>
@@ -235,22 +235,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>近所の街中華のラーメンが好きなんだよね</t>
-    <rPh sb="0" eb="2">
-      <t>キンジョ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マチ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チュウカ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>知らないラーメンが好き</t>
     <rPh sb="0" eb="1">
       <t>シ</t>
@@ -524,6 +508,12 @@
   </si>
   <si>
     <t>$skip</t>
+  </si>
+  <si>
+    <t>豚骨ラーメンが好き</t>
+  </si>
+  <si>
+    <t>好き</t>
   </si>
 </sst>
 </file>
@@ -992,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D1DC6-E066-4D71-9ECD-01107058A46B}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -1016,7 +1006,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1042,13 +1032,13 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>16</v>
@@ -1062,17 +1052,17 @@
         <v>16</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1">
@@ -1087,7 +1077,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" ht="75">
@@ -1095,10 +1085,10 @@
         <v>30</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="14"/>
       <c r="F5" s="14"/>
@@ -1109,7 +1099,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
@@ -1129,7 +1119,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
@@ -1149,16 +1139,16 @@
         <v>30</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="15" customFormat="1" ht="75">
@@ -1166,10 +1156,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>60</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>9</v>
@@ -1188,7 +1178,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16" t="s">
@@ -1208,7 +1198,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
@@ -1228,16 +1218,16 @@
         <v>30</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1">
@@ -1245,14 +1235,14 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
@@ -1264,12 +1254,12 @@
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
@@ -1294,7 +1284,7 @@
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>20</v>
@@ -1316,7 +1306,7 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>20</v>
@@ -1338,7 +1328,7 @@
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>22</v>
@@ -1360,7 +1350,7 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>22</v>
@@ -1375,11 +1365,11 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>20</v>
@@ -1412,7 +1402,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>12</v>
@@ -1421,10 +1411,10 @@
         <v>25</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>15</v>
@@ -1445,10 +1435,10 @@
         <v>25</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>25</v>
@@ -1459,7 +1449,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1467,259 +1457,245 @@
         <v>25</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" ht="45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="30">
+      <c r="A24" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="B24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="D24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="5" customFormat="1" ht="30">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="5" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="5" customFormat="1">
-      <c r="A26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="45">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="45">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" ht="30">
-      <c r="A28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="30">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="3" t="s">
+      <c r="C27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="45">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="45">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="7" customFormat="1" ht="45">
-      <c r="A31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" ht="45">
-      <c r="A32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row r="30" spans="1:8" s="7" customFormat="1" ht="45">
+      <c r="A30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1" ht="45">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" ht="90">
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" s="5" customFormat="1" ht="90">
+      <c r="A32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="75">
       <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" ht="75">
-      <c r="A34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="60">
-      <c r="A35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="60">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" s="5" customFormat="1" ht="60">
-      <c r="A36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="D34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" s="5" customFormat="1" ht="60">
+      <c r="A35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1">
       <c r="A37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="3" customFormat="1">
-      <c r="A38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
+++ b/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-next\sample_apps\lab_app_ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45FF27C-373B-43A9-AF03-824CCE1CEE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF3A1B1-4A22-4FA3-98D2-79C27D3EACC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
   </bookViews>
@@ -985,23 +985,23 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="9"/>
-    <col min="2" max="2" width="25.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" style="9"/>
+    <col min="2" max="2" width="25.3984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.86328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.265625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="33.3984375" style="10" customWidth="1"/>
     <col min="7" max="7" width="39" style="10" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.5703125" style="9"/>
+    <col min="8" max="8" width="37.86328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.59765625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="60">
+    <row r="3" spans="1:8" s="11" customFormat="1" ht="42.75">
       <c r="A3" s="11" t="s">
         <v>30</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="13" customFormat="1" ht="75">
+    <row r="5" spans="1:8" s="13" customFormat="1" ht="57">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
@@ -1094,7 +1094,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:8" s="13" customFormat="1" ht="30">
+    <row r="6" spans="1:8" s="13" customFormat="1">
       <c r="A6" s="13" t="s">
         <v>30</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="30">
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="28.5">
       <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="15" customFormat="1" ht="75">
+    <row r="9" spans="1:8" s="15" customFormat="1" ht="57">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="15" customFormat="1" ht="30">
+    <row r="10" spans="1:8" s="15" customFormat="1">
       <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="15" customFormat="1" ht="30">
+    <row r="12" spans="1:8" s="15" customFormat="1" ht="28.5">
       <c r="A12" s="15" t="s">
         <v>30</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" ht="30">
+    <row r="15" spans="1:8" s="7" customFormat="1">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" ht="30">
+    <row r="18" spans="1:8" s="7" customFormat="1">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="45">
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="28.5">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="60">
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="57">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="45">
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="28.5">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="30">
+    <row r="23" spans="1:8" s="5" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" ht="30">
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="28.5">
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="45">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="42.75">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="30">
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="28.5">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="45">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="42.75">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="7" customFormat="1" ht="45">
+    <row r="30" spans="1:8" s="7" customFormat="1" ht="28.5">
       <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="45">
+    <row r="31" spans="1:8" s="3" customFormat="1" ht="42.75">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -1603,7 +1603,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" ht="90">
+    <row r="32" spans="1:8" s="5" customFormat="1" ht="71.25">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" ht="75">
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="57">
       <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="60">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="42.75">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" ht="60">
+    <row r="35" spans="1:8" s="5" customFormat="1" ht="42.75">
       <c r="A35" s="5" t="s">
         <v>30</v>
       </c>

--- a/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
+++ b/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-next\sample_apps\lab_app_ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF3A1B1-4A22-4FA3-98D2-79C27D3EACC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7FE05B-DC78-46FD-AB1A-6B1A89370C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="85">
   <si>
     <t>system utterance</t>
     <phoneticPr fontId="1"/>
@@ -312,15 +312,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>set_impression_of_dialogue(&amp;impression)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>#final_with_impression</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{impression} 今日はお時間ありがとうございました。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -514,6 +506,9 @@
   </si>
   <si>
     <t>好き</t>
+  </si>
+  <si>
+    <t>{$"ユーザ発話に対する感想を言って対話を終わらせる短い発話を生成してください。"} 今日はお時間ありがとうございました。</t>
   </si>
 </sst>
 </file>
@@ -984,24 +979,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D1DC6-E066-4D71-9ECD-01107058A46B}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" style="9"/>
-    <col min="2" max="2" width="25.3984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.265625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="33.3984375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="9"/>
+    <col min="2" max="2" width="25.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="10" customWidth="1"/>
     <col min="7" max="7" width="39" style="10" customWidth="1"/>
-    <col min="8" max="8" width="37.86328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.59765625" style="9"/>
+    <col min="8" max="8" width="37.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.5703125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="42.75">
+    <row r="3" spans="1:8" s="11" customFormat="1" ht="60">
       <c r="A3" s="11" t="s">
         <v>30</v>
       </c>
@@ -1052,17 +1047,17 @@
         <v>16</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1">
@@ -1077,29 +1072,29 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="13" customFormat="1" ht="57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="13" customFormat="1" ht="75">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:8" s="13" customFormat="1">
+    <row r="6" spans="1:8" s="13" customFormat="1" ht="30">
       <c r="A6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
@@ -1119,7 +1114,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
@@ -1134,32 +1129,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="28.5">
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="30">
       <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="15" customFormat="1" ht="57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="15" customFormat="1" ht="75">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>9</v>
@@ -1173,12 +1168,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="15" customFormat="1">
+    <row r="10" spans="1:8" s="15" customFormat="1" ht="30">
       <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16" t="s">
@@ -1198,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
@@ -1213,21 +1208,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="15" customFormat="1" ht="28.5">
+    <row r="12" spans="1:8" s="15" customFormat="1" ht="30">
       <c r="A12" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1">
@@ -1235,14 +1230,14 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
@@ -1254,19 +1249,19 @@
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1">
+    <row r="15" spans="1:8" s="7" customFormat="1" ht="30">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -1284,7 +1279,7 @@
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>20</v>
@@ -1306,7 +1301,7 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>20</v>
@@ -1328,13 +1323,13 @@
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1">
+    <row r="18" spans="1:8" s="7" customFormat="1" ht="30">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
@@ -1350,7 +1345,7 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>22</v>
@@ -1369,13 +1364,13 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="28.5">
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="45">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -1394,7 +1389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="57">
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="60">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -1402,7 +1397,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>12</v>
@@ -1411,16 +1406,16 @@
         <v>25</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="28.5">
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="45">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
@@ -1435,21 +1430,21 @@
         <v>25</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="5" customFormat="1">
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="30">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1457,16 +1452,16 @@
         <v>25</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" ht="28.5">
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="30">
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
@@ -1474,17 +1469,17 @@
         <v>22</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="5" customFormat="1">
@@ -1502,26 +1497,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="42.75">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="2"/>
+      <c r="H26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="28.5">
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="30">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1529,7 +1522,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D27" s="4"/>
       <c r="F27" s="4"/>
@@ -1538,7 +1531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="42.75">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1575,7 +1568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="7" customFormat="1" ht="28.5">
+    <row r="30" spans="1:8" s="7" customFormat="1" ht="45">
       <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
@@ -1583,27 +1576,27 @@
         <v>37</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="42.75">
+    <row r="31" spans="1:8" s="3" customFormat="1" ht="90">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" ht="71.25">
+    <row r="32" spans="1:8" s="5" customFormat="1" ht="90">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -1611,27 +1604,27 @@
         <v>17</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" ht="57">
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="75">
       <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="42.75">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="60">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -1645,7 +1638,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" ht="42.75">
+    <row r="35" spans="1:8" s="5" customFormat="1" ht="60">
       <c r="A35" s="5" t="s">
         <v>30</v>
       </c>
@@ -1653,7 +1646,7 @@
         <v>41</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D35" s="6"/>
       <c r="F35" s="6"/>
@@ -1664,10 +1657,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="3" t="s">
@@ -1675,10 +1668,10 @@
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1">
@@ -1686,16 +1679,16 @@
         <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
+++ b/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-next\sample_apps\lab_app_ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF3A1B1-4A22-4FA3-98D2-79C27D3EACC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57190AB5-C96D-4B5E-9263-C67C57506070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
+    <workbookView xWindow="33675" yWindow="1890" windowWidth="21540" windowHeight="11055" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario" sheetId="1" r:id="rId1"/>
@@ -483,15 +483,9 @@
     <t>{greeting}。私は{get_system_name()}です。よろしければお名前を教えて頂けますか？</t>
   </si>
   <si>
-    <t>ありがとうございます。{#NE_Person}さん、今日はラーメンについて教えて下さい。ラーメンはよく食べますか？</t>
-  </si>
-  <si>
     <t>confirmation_request="すみません。ラーメンってよく食べますか？"</t>
   </si>
   <si>
-    <t>#NE_Person!=""</t>
-  </si>
-  <si>
     <t>#好きなラーメン=="豚骨ラーメン"</t>
   </si>
   <si>
@@ -514,6 +508,12 @@
   </si>
   <si>
     <t>好き</t>
+  </si>
+  <si>
+    <t>ありがとうございます。{#NE_人名}さん、今日はラーメンについて教えて下さい。ラーメンはよく食べますか？</t>
+  </si>
+  <si>
+    <t>#NE_人名!=""</t>
   </si>
 </sst>
 </file>
@@ -984,24 +984,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D1DC6-E066-4D71-9ECD-01107058A46B}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" style="9"/>
-    <col min="2" max="2" width="25.3984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.265625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="33.3984375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="9"/>
+    <col min="2" max="2" width="25.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="10" customWidth="1"/>
     <col min="7" max="7" width="39" style="10" customWidth="1"/>
-    <col min="8" max="8" width="37.86328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.59765625" style="9"/>
+    <col min="8" max="8" width="37.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.5703125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="42.75">
+    <row r="3" spans="1:8" s="11" customFormat="1" ht="60">
       <c r="A3" s="11" t="s">
         <v>30</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>56</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="11" t="s">
@@ -1080,7 +1080,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="13" customFormat="1" ht="57">
+    <row r="5" spans="1:8" s="13" customFormat="1" ht="75">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
@@ -1088,13 +1088,13 @@
         <v>57</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:8" s="13" customFormat="1">
+    <row r="6" spans="1:8" s="13" customFormat="1" ht="30">
       <c r="A6" s="13" t="s">
         <v>30</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="28.5">
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="30">
       <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
@@ -1145,13 +1145,13 @@
       <c r="D8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="15" customFormat="1" ht="57">
+    <row r="9" spans="1:8" s="15" customFormat="1" ht="75">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="15" customFormat="1">
+    <row r="10" spans="1:8" s="15" customFormat="1" ht="30">
       <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="15" customFormat="1" ht="28.5">
+    <row r="12" spans="1:8" s="15" customFormat="1" ht="30">
       <c r="A12" s="15" t="s">
         <v>30</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="2" t="s">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1">
+    <row r="15" spans="1:8" s="7" customFormat="1" ht="30">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>20</v>
@@ -1334,7 +1334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1">
+    <row r="18" spans="1:8" s="7" customFormat="1" ht="30">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="28.5">
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="45">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="57">
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="60">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>12</v>
@@ -1411,7 +1411,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>61</v>
@@ -1420,7 +1420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="28.5">
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="45">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
@@ -1444,12 +1444,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="5" customFormat="1">
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="30">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1466,7 +1466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" ht="28.5">
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="30">
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="5" t="s">
@@ -1502,12 +1502,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="42.75">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>32</v>
@@ -1521,7 +1521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="28.5">
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="30">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="42.75">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="7" customFormat="1" ht="28.5">
+    <row r="30" spans="1:8" s="7" customFormat="1" ht="45">
       <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="42.75">
+    <row r="31" spans="1:8" s="3" customFormat="1" ht="45">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -1603,7 +1603,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" ht="71.25">
+    <row r="32" spans="1:8" s="5" customFormat="1" ht="90">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -1611,13 +1611,13 @@
         <v>17</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" ht="57">
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="75">
       <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="42.75">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="60">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" ht="42.75">
+    <row r="35" spans="1:8" s="5" customFormat="1" ht="60">
       <c r="A35" s="5" t="s">
         <v>30</v>
       </c>

--- a/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
+++ b/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-next\sample_apps\lab_app_ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57190AB5-C96D-4B5E-9263-C67C57506070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76BDBD3-95BC-4662-B64D-B3FFA1427E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33675" yWindow="1890" windowWidth="21540" windowHeight="11055" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="85">
   <si>
     <t>system utterance</t>
     <phoneticPr fontId="1"/>
@@ -312,15 +312,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>set_impression_of_dialogue(&amp;impression)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>#final_with_impression</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{impression} 今日はお時間ありがとうございました。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -510,10 +502,13 @@
     <t>好き</t>
   </si>
   <si>
+    <t>{$"ユーザ発話に対する感想を言って対話を終わらせる短い発話を生成してください。"} 今日はお時間ありがとうございました。</t>
+  </si>
+  <si>
+    <t>#NE_人名!=""</t>
+  </si>
+  <si>
     <t>ありがとうございます。{#NE_人名}さん、今日はラーメンについて教えて下さい。ラーメンはよく食べますか？</t>
-  </si>
-  <si>
-    <t>#NE_人名!=""</t>
   </si>
 </sst>
 </file>
@@ -985,7 +980,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -994,7 +989,7 @@
     <col min="2" max="2" width="25.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.42578125" style="10" customWidth="1"/>
     <col min="7" max="7" width="39" style="10" customWidth="1"/>
     <col min="8" max="8" width="37.85546875" style="9" bestFit="1" customWidth="1"/>
@@ -1052,17 +1047,17 @@
         <v>16</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1">
@@ -1077,7 +1072,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" ht="75">
@@ -1085,7 +1080,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>84</v>
@@ -1099,7 +1094,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
@@ -1119,7 +1114,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
@@ -1139,16 +1134,16 @@
         <v>30</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="15" customFormat="1" ht="75">
@@ -1156,10 +1151,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>9</v>
@@ -1178,7 +1173,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16" t="s">
@@ -1198,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
@@ -1218,16 +1213,16 @@
         <v>30</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1">
@@ -1235,14 +1230,14 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
@@ -1254,12 +1249,12 @@
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
@@ -1284,7 +1279,7 @@
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>20</v>
@@ -1306,7 +1301,7 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>20</v>
@@ -1328,7 +1323,7 @@
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>22</v>
@@ -1350,7 +1345,7 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>22</v>
@@ -1369,7 +1364,7 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>20</v>
@@ -1402,7 +1397,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>12</v>
@@ -1411,10 +1406,10 @@
         <v>25</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>15</v>
@@ -1435,10 +1430,10 @@
         <v>25</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>25</v>
@@ -1449,7 +1444,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1457,10 +1452,10 @@
         <v>25</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>31</v>
@@ -1474,17 +1469,17 @@
         <v>22</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="5" customFormat="1">
@@ -1507,18 +1502,16 @@
         <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="2"/>
+      <c r="H26" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" ht="30">
@@ -1529,7 +1522,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D27" s="4"/>
       <c r="F27" s="4"/>
@@ -1583,21 +1576,21 @@
         <v>37</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="45">
+    <row r="31" spans="1:8" s="3" customFormat="1" ht="90">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D31" s="4"/>
       <c r="F31" s="4"/>
@@ -1611,7 +1604,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" s="6"/>
       <c r="F32" s="6"/>
@@ -1622,10 +1615,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" s="6"/>
       <c r="F33" s="6"/>
@@ -1653,7 +1646,7 @@
         <v>41</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D35" s="6"/>
       <c r="F35" s="6"/>
@@ -1664,10 +1657,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="3" t="s">
@@ -1675,10 +1668,10 @@
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1">
@@ -1686,16 +1679,16 @@
         <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
+++ b/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-next\sample_apps\lab_app_ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76BDBD3-95BC-4662-B64D-B3FFA1427E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE20D7BF-AAD3-4AF6-A5AF-2D3D6B844A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="87">
   <si>
     <t>system utterance</t>
     <phoneticPr fontId="1"/>
@@ -85,13 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ラーメンお好きなんですね。</t>
-    <rPh sb="5" eb="6">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>そうですね。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -396,13 +389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>すみません、ちょっと理解できませんでした。今日はラーメンについて教えて下さい。ラーメンはよく食べますか？</t>
-    <rPh sb="10" eb="12">
-      <t>リカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>#gosub:確認:ラーメン食べるか確認完了</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -487,12 +473,6 @@
     <t>豚骨ラーメンとか塩ラーメンなどいろんな種類のラーメンがありますが、どんなラーメンが好きですか？</t>
   </si>
   <si>
-    <t>わかりました。{$"それまでの会話につづけて、対話を終わらせる発話を50文字以内で生成してください。"}今日はお時間ありがとうございました。</t>
-  </si>
-  <si>
-    <t>$"ユーザが理由を言ったかどうか判断してください。"</t>
-  </si>
-  <si>
     <t>$skip</t>
   </si>
   <si>
@@ -502,13 +482,52 @@
     <t>好き</t>
   </si>
   <si>
-    <t>{$"ユーザ発話に対する感想を言って対話を終わらせる短い発話を生成してください。"} 今日はお時間ありがとうございました。</t>
-  </si>
-  <si>
     <t>#NE_人名!=""</t>
   </si>
   <si>
-    <t>ありがとうございます。{#NE_人名}さん、今日はラーメンについて教えて下さい。ラーメンはよく食べますか？</t>
+    <t>ラーメンお好きなんですね。</t>
+  </si>
+  <si>
+    <t>すみません、ちょっと理解できませんでした。今日はラーメンについて教えて下さい。ラーメンはよく食べますか？</t>
+  </si>
+  <si>
+    <t>$ユーザ発話に対する感想を言って対話を終わらせる短い発話を生成してください。$今日はお時間ありがとうございました。</t>
+  </si>
+  <si>
+    <t>$ユーザが理由を言ったかどうか判断してください。$</t>
+  </si>
+  <si>
+    <t>#final</t>
+  </si>
+  <si>
+    <t>#final_aplology</t>
+  </si>
+  <si>
+    <t>わかりました。
+$$$
+# 状況
+{situation}
+# あなたのペルソナ
+{persona}
+# 現在までの対話
+{dialogue_history}
+# タスク
+それまでの会話につづけて、対話を終わらせる発話を50文字以内で生成してください。
+$$$
+今日はお時間ありがとうございました。</t>
+  </si>
+  <si>
+    <t>ありがとうございます。$$$
+# 状況
+{situation}
+# あなたのペルソナ
+{persona}
+# 現在までの対話
+{dialogue_history}
+# タスク
+それまでの会話につづけて、対話を終わらせる発話を50文字以内で生成してください。
+$$$
+{#NE_人名}さん、今日はラーメンについて教えて下さい。ラーメンはよく食べますか？</t>
   </si>
 </sst>
 </file>
@@ -980,7 +999,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -1001,7 +1020,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1016,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -1024,66 +1043,66 @@
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" ht="60">
       <c r="A3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1">
       <c r="A4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="13" customFormat="1" ht="75">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="13" customFormat="1" ht="390">
       <c r="A5" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D5" s="14"/>
       <c r="F5" s="14"/>
@@ -1091,14 +1110,14 @@
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1" ht="30">
       <c r="A6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>3</v>
@@ -1111,17 +1130,17 @@
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1">
       <c r="A7" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1131,30 +1150,30 @@
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1" ht="30">
       <c r="A8" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="15" customFormat="1" ht="75">
       <c r="A9" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>9</v>
@@ -1170,14 +1189,14 @@
     </row>
     <row r="10" spans="1:8" s="15" customFormat="1" ht="30">
       <c r="A10" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>3</v>
@@ -1190,17 +1209,17 @@
     </row>
     <row r="11" spans="1:8" s="15" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -1210,34 +1229,34 @@
     </row>
     <row r="12" spans="1:8" s="15" customFormat="1" ht="30">
       <c r="A12" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
@@ -1246,15 +1265,15 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
@@ -1263,348 +1282,348 @@
     </row>
     <row r="15" spans="1:8" s="7" customFormat="1" ht="30">
       <c r="A15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="7" customFormat="1">
       <c r="A16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="7" customFormat="1">
       <c r="A17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="7" customFormat="1" ht="30">
       <c r="A18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="7" customFormat="1">
       <c r="A19" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" ht="45">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" ht="60">
       <c r="A21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" ht="45">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" ht="30">
       <c r="A23" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="5" customFormat="1" ht="30">
       <c r="A24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="5" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="5" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="5" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" ht="30">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1">
       <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="7" customFormat="1" ht="45">
       <c r="A30" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="90">
+    <row r="31" spans="1:8" s="3" customFormat="1" ht="75">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" ht="90">
+    <row r="32" spans="1:8" s="5" customFormat="1" ht="360">
       <c r="A32" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D32" s="6"/>
       <c r="F32" s="6"/>
@@ -1612,13 +1631,13 @@
     </row>
     <row r="33" spans="1:8" s="5" customFormat="1" ht="75">
       <c r="A33" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D33" s="6"/>
       <c r="F33" s="6"/>
@@ -1626,13 +1645,13 @@
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" ht="60">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D34" s="2"/>
       <c r="F34" s="2"/>
@@ -1640,13 +1659,13 @@
     </row>
     <row r="35" spans="1:8" s="5" customFormat="1" ht="60">
       <c r="A35" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D35" s="6"/>
       <c r="F35" s="6"/>
@@ -1654,41 +1673,41 @@
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1">
       <c r="A36" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1">
       <c r="A37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
+++ b/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-next\sample_apps\lab_app_ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE20D7BF-AAD3-4AF6-A5AF-2D3D6B844A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDDFF6E-EA2C-47AA-8A2F-7155123A191E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
   </bookViews>
@@ -517,16 +517,7 @@
 今日はお時間ありがとうございました。</t>
   </si>
   <si>
-    <t>ありがとうございます。$$$
-# 状況
-{situation}
-# あなたのペルソナ
-{persona}
-# 現在までの対話
-{dialogue_history}
-# タスク
-それまでの会話につづけて、対話を終わらせる発話を50文字以内で生成してください。
-$$$
+    <t>ありがとうございます。
 {#NE_人名}さん、今日はラーメンについて教えて下さい。ラーメンはよく食べますか？</t>
   </si>
 </sst>
@@ -999,7 +990,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -1094,7 +1085,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="13" customFormat="1" ht="390">
+    <row r="5" spans="1:8" s="13" customFormat="1" ht="75">
       <c r="A5" s="13" t="s">
         <v>29</v>
       </c>

--- a/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
+++ b/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-next\sample_apps\lab_app_ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDDFF6E-EA2C-47AA-8A2F-7155123A191E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF470D0-7D75-4EC0-A039-FF0CA8B9DC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario" sheetId="1" r:id="rId1"/>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D1DC6-E066-4D71-9ECD-01107058A46B}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>

--- a/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
+++ b/sample_apps/lab_app_ja/lab_app_scenario_ja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-next\sample_apps\lab_app_ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF470D0-7D75-4EC0-A039-FF0CA8B9DC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B598DB-8B5F-4D13-9B82-7BE05D53628F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="88">
   <si>
     <t>system utterance</t>
     <phoneticPr fontId="1"/>
@@ -498,9 +498,6 @@
   </si>
   <si>
     <t>#final</t>
-  </si>
-  <si>
-    <t>#final_aplology</t>
   </si>
   <si>
     <t>わかりました。
@@ -519,6 +516,12 @@
   <si>
     <t>ありがとうございます。
 {#NE_人名}さん、今日はラーメンについて教えて下さい。ラーメンはよく食べますか？</t>
+  </si>
+  <si>
+    <t>否定</t>
+  </si>
+  <si>
+    <t>#final_apology</t>
   </si>
 </sst>
 </file>
@@ -987,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D1DC6-E066-4D71-9ECD-01107058A46B}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -1093,7 +1096,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="14"/>
       <c r="F5" s="14"/>
@@ -1127,19 +1130,17 @@
         <v>54</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="13" customFormat="1">
       <c r="A8" s="13" t="s">
         <v>29</v>
       </c>
@@ -1147,58 +1148,58 @@
         <v>54</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="13" customFormat="1" ht="30">
+      <c r="A9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H9" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="15" customFormat="1" ht="75">
-      <c r="A9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="15" customFormat="1" ht="30">
+    <row r="10" spans="1:8" s="15" customFormat="1" ht="75">
       <c r="A10" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="D10" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="15" customFormat="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="15" customFormat="1" ht="30">
       <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
@@ -1207,18 +1208,18 @@
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="15" customFormat="1" ht="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="15" customFormat="1">
       <c r="A12" s="15" t="s">
         <v>29</v>
       </c>
@@ -1226,32 +1227,33 @@
         <v>55</v>
       </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="15" customFormat="1" ht="30">
+      <c r="A13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H13" s="15" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1">
@@ -1261,57 +1263,54 @@
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" ht="30">
-      <c r="A15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="7" customFormat="1">
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="30">
       <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="D16" s="8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>19</v>
@@ -1326,20 +1325,20 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" ht="30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -1348,20 +1347,20 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="7" customFormat="1">
+    <row r="19" spans="1:8" s="7" customFormat="1" ht="30">
       <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
@@ -1370,69 +1369,67 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1">
+      <c r="A20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="45">
-      <c r="A20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="45">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="3" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="60">
-      <c r="A21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="45">
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="60">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="D22" s="6" t="s">
         <v>11</v>
       </c>
@@ -1440,35 +1437,37 @@
         <v>24</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="45">
       <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="5" customFormat="1" ht="30">
@@ -1476,213 +1475,213 @@
         <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>26</v>
+        <v>77</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="H24" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="5" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="5" customFormat="1" ht="30">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="45">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="5" customFormat="1">
+      <c r="A26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="45">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="1" t="s">
+      <c r="D27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="30">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="28" spans="1:8" s="3" customFormat="1" ht="30">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="3" t="s">
+      <c r="D28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="45">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="7" customFormat="1" ht="45">
-      <c r="A30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7" t="s">
+    <row r="31" spans="1:8" s="7" customFormat="1" ht="45">
+      <c r="A31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="75">
-      <c r="A31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="D31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1" ht="75">
+      <c r="A32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" ht="360">
-      <c r="A32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="D32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="360">
+      <c r="A33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" ht="75">
-      <c r="A33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="C33" s="6" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="60">
-      <c r="A34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="1:8" s="5" customFormat="1" ht="75">
+      <c r="A34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="60">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" ht="60">
-      <c r="A35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="D35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" s="5" customFormat="1" ht="60">
+      <c r="A36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" s="3" customFormat="1">
-      <c r="A36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1">
       <c r="A37" s="3" t="s">
@@ -1691,13 +1690,35 @@
       <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D37" s="4"/>
+      <c r="E37" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="3" customFormat="1">
+      <c r="A38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>46</v>
       </c>
     </row>
